--- a/PNRG.xlsx
+++ b/PNRG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13919646-1D49-4997-A4A6-1FA1137161E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2F796A-5F8B-48EB-8FF8-AED1BF3F81CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25245" yWindow="1800" windowWidth="19845" windowHeight="16215" xr2:uid="{814360DA-EA9C-433E-819D-FC7DDC196609}"/>
+    <workbookView xWindow="-30645" yWindow="2205" windowWidth="27480" windowHeight="16155" activeTab="1" xr2:uid="{814360DA-EA9C-433E-819D-FC7DDC196609}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26B4E3A-7048-4D38-989E-4072FADC9B49}">
   <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -728,11 +728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983736F2-175D-4895-BEEC-B4502FABAA86}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -788,59 +788,59 @@
         <v>2020</v>
       </c>
       <c r="R2">
-        <f>+Q2+1</f>
+        <f t="shared" ref="R2:AE2" si="0">+Q2+1</f>
         <v>2021</v>
       </c>
       <c r="S2">
-        <f>+R2+1</f>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="T2">
-        <f>+S2+1</f>
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="U2">
-        <f>+T2+1</f>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="V2">
-        <f>+U2+1</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="W2">
-        <f>+V2+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="X2">
-        <f>+W2+1</f>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="Y2">
-        <f>+X2+1</f>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="Z2">
-        <f>+Y2+1</f>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="AA2">
-        <f>+Z2+1</f>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="AB2">
-        <f>+AA2+1</f>
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
       <c r="AC2">
-        <f>+AB2+1</f>
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
       <c r="AD2">
-        <f>+AC2+1</f>
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
       <c r="AE2">
-        <f>+AD2+1</f>
+        <f t="shared" si="0"/>
         <v>2034</v>
       </c>
     </row>
@@ -987,7 +987,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8">
-        <f t="shared" ref="K7" si="0">SUM(K3:K6)</f>
+        <f t="shared" ref="K7" si="1">SUM(K3:K6)</f>
         <v>42.420999999999999</v>
       </c>
       <c r="L7" s="8">
@@ -1148,11 +1148,11 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6">
-        <f t="shared" ref="K12" si="1">SUM(K8:K11)</f>
+        <f t="shared" ref="K12" si="2">SUM(K8:K11)</f>
         <v>17.940999999999999</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" ref="I12:L12" si="2">SUM(L8:L11)</f>
+        <f t="shared" ref="L12" si="3">SUM(L8:L11)</f>
         <v>22.449000000000002</v>
       </c>
       <c r="M12" s="6"/>
@@ -1185,11 +1185,11 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6">
-        <f t="shared" ref="K13" si="3">+K7-K12</f>
+        <f t="shared" ref="K13" si="4">+K7-K12</f>
         <v>24.48</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" ref="I13:L13" si="4">+L7-L12</f>
+        <f t="shared" ref="L13" si="5">+L7-L12</f>
         <v>42.152000000000001</v>
       </c>
       <c r="M13" s="6"/>
@@ -1247,7 +1247,7 @@
         <v>11.786000000000003</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" ref="K15" si="5">+K13-K14</f>
+        <f t="shared" ref="K15" si="6">+K13-K14</f>
         <v>21.456</v>
       </c>
       <c r="L15" s="6">
@@ -1276,7 +1276,7 @@
         <v>4.4577208663394812</v>
       </c>
       <c r="K16" s="9">
-        <f t="shared" ref="K16" si="6">+K15/K17</f>
+        <f t="shared" ref="K16" si="7">+K15/K17</f>
         <v>8.3618120533088902</v>
       </c>
       <c r="L16" s="9">
